--- a/Outputs.xlsx
+++ b/Outputs.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Varun_Bawa\Desktop\WRF Performance Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Varun_Bawa\Desktop\WRF Performance Prediction\WRF-Prediction-Using-ML-Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EC6E8F-A44C-495E-BF67-0F7578450294}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AFDC82-3776-4B8A-A223-F8BFB0A735E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="New Predictions" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Prediction Model outputs</t>
   </si>
@@ -82,6 +83,45 @@
   </si>
   <si>
     <t>Frequency(MHz)','Cores','MemBW(GBps)'</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>CPUFrequency</t>
+  </si>
+  <si>
+    <t>Cores</t>
+  </si>
+  <si>
+    <t>Sockets</t>
+  </si>
+  <si>
+    <t>Turbo</t>
+  </si>
+  <si>
+    <t>DIMMFreq</t>
+  </si>
+  <si>
+    <t>PeakMemBW</t>
+  </si>
+  <si>
+    <t>MemBW(GBps)</t>
+  </si>
+  <si>
+    <t>Frequency(MHz)</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>P_Performance</t>
+  </si>
+  <si>
+    <t>P_Freq</t>
+  </si>
+  <si>
+    <t>P_MemBW</t>
   </si>
 </sst>
 </file>
@@ -414,10 +454,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4079F401-BBE9-402D-89F1-25E6D15A72C9}">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="5.6328125" customWidth="1"/>
+    <col min="4" max="4" width="6.90625" customWidth="1"/>
+    <col min="5" max="5" width="5.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>6248</v>
+      </c>
+      <c r="B4">
+        <v>2501</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3900</v>
+      </c>
+      <c r="F4">
+        <v>2933</v>
+      </c>
+      <c r="G4">
+        <v>274.95999999999998</v>
+      </c>
+      <c r="H4">
+        <v>168.45500000000001</v>
+      </c>
+      <c r="J4">
+        <v>2603</v>
+      </c>
+      <c r="L4">
+        <v>3.2023579999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>6248</v>
+      </c>
+      <c r="B5">
+        <v>2501</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3900</v>
+      </c>
+      <c r="F5">
+        <v>2933</v>
+      </c>
+      <c r="G5">
+        <v>274.95999999999998</v>
+      </c>
+      <c r="H5">
+        <v>119.999</v>
+      </c>
+      <c r="J5">
+        <v>3062</v>
+      </c>
+      <c r="L5">
+        <v>4.2491099999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6234</v>
+      </c>
+      <c r="B6">
+        <v>3301</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>4000</v>
+      </c>
+      <c r="F6">
+        <v>2933</v>
+      </c>
+      <c r="G6">
+        <v>274.95999999999998</v>
+      </c>
+      <c r="H6">
+        <v>99.771000000000001</v>
+      </c>
+      <c r="J6">
+        <v>3198</v>
+      </c>
+      <c r="L6">
+        <v>4.894266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6242</v>
+      </c>
+      <c r="B7">
+        <v>2801</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3800</v>
+      </c>
+      <c r="F7">
+        <v>2933</v>
+      </c>
+      <c r="G7">
+        <v>274.95999999999998</v>
+      </c>
+      <c r="H7">
+        <v>141.55500000000001</v>
+      </c>
+      <c r="J7">
+        <v>2984</v>
+      </c>
+      <c r="L7">
+        <v>4.2491099999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8268</v>
+      </c>
+      <c r="B8">
+        <v>2901</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3900</v>
+      </c>
+      <c r="F8">
+        <v>2933</v>
+      </c>
+      <c r="G8">
+        <v>274.95999999999998</v>
+      </c>
+      <c r="H8">
+        <v>175.614</v>
+      </c>
+      <c r="J8">
+        <v>2711</v>
+      </c>
+      <c r="L8">
+        <v>2.9045100000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;7&amp;K7F7F7FInternal Use - Confidential</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/Outputs.xlsx
+++ b/Outputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Varun_Bawa\Desktop\WRF Performance Prediction\WRF-Prediction-Using-ML-Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AFDC82-3776-4B8A-A223-F8BFB0A735E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503968F9-81D8-4FF8-90C1-FECB01ED9D3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,23 @@
     <sheet name="New Predictions" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Prediction Model outputs</t>
   </si>
@@ -94,15 +100,9 @@
     <t>Cores</t>
   </si>
   <si>
-    <t>Sockets</t>
-  </si>
-  <si>
     <t>Turbo</t>
   </si>
   <si>
-    <t>DIMMFreq</t>
-  </si>
-  <si>
     <t>PeakMemBW</t>
   </si>
   <si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>P_MemBW</t>
+  </si>
+  <si>
+    <t>Poisson Regression</t>
+  </si>
+  <si>
+    <t>Support Vector Regression</t>
+  </si>
+  <si>
+    <t>PLS Regression</t>
+  </si>
+  <si>
+    <t>MLP Regression</t>
   </si>
 </sst>
 </file>
@@ -143,12 +155,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -175,6 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,27 +474,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4079F401-BBE9-402D-89F1-25E6D15A72C9}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.81640625" customWidth="1"/>
     <col min="3" max="3" width="5.6328125" customWidth="1"/>
-    <col min="4" max="4" width="6.90625" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" customWidth="1"/>
-    <col min="8" max="8" width="13.36328125" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="19.08984375" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" customWidth="1"/>
     <col min="12" max="12" width="11.54296875" customWidth="1"/>
+    <col min="13" max="13" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -495,28 +515,31 @@
         <v>24</v>
       </c>
       <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6248</v>
       </c>
@@ -527,153 +550,169 @@
         <v>40</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3900</v>
       </c>
       <c r="E4">
-        <v>3900</v>
+        <v>274.95999999999998</v>
       </c>
       <c r="F4">
-        <v>2933</v>
-      </c>
-      <c r="G4">
-        <v>274.95999999999998</v>
-      </c>
-      <c r="H4">
         <v>168.45500000000001</v>
       </c>
-      <c r="J4">
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="5">
+        <v>-6.62</v>
+      </c>
+      <c r="I4">
         <v>2603</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="5">
+        <v>9.27</v>
       </c>
       <c r="L4">
         <v>3.2023579999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>6248</v>
+        <v>6234</v>
       </c>
       <c r="B5">
-        <v>2501</v>
+        <v>3301</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4000</v>
       </c>
       <c r="E5">
+        <v>274.95999999999998</v>
+      </c>
+      <c r="F5">
+        <v>99.771000000000001</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="5">
+        <v>57.71</v>
+      </c>
+      <c r="I5">
+        <v>3198</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L5">
+        <v>4.894266</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="5">
+        <v>-23.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6242</v>
+      </c>
+      <c r="B6">
+        <v>2801</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>3800</v>
+      </c>
+      <c r="E6">
+        <v>274.95999999999998</v>
+      </c>
+      <c r="F6">
+        <v>141.55500000000001</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="I6">
+        <v>2984</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="5">
+        <v>-1.67</v>
+      </c>
+      <c r="L6">
+        <v>4.2491099999999999</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="5">
+        <v>-15.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>8268</v>
+      </c>
+      <c r="B7">
+        <v>2901</v>
+      </c>
+      <c r="C7">
+        <v>48</v>
+      </c>
+      <c r="D7">
         <v>3900</v>
       </c>
-      <c r="F5">
-        <v>2933</v>
-      </c>
-      <c r="G5">
+      <c r="E7">
         <v>274.95999999999998</v>
       </c>
-      <c r="H5">
-        <v>119.999</v>
-      </c>
-      <c r="J5">
-        <v>3062</v>
-      </c>
-      <c r="L5">
-        <v>4.2491099999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>6234</v>
-      </c>
-      <c r="B6">
-        <v>3301</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>4000</v>
-      </c>
-      <c r="F6">
-        <v>2933</v>
-      </c>
-      <c r="G6">
-        <v>274.95999999999998</v>
-      </c>
-      <c r="H6">
-        <v>99.771000000000001</v>
-      </c>
-      <c r="J6">
-        <v>3198</v>
-      </c>
-      <c r="L6">
-        <v>4.894266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6242</v>
-      </c>
-      <c r="B7">
-        <v>2801</v>
-      </c>
-      <c r="C7">
+      <c r="F7">
+        <v>175.614</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="I7">
+        <v>2711</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>3800</v>
-      </c>
-      <c r="F7">
-        <v>2933</v>
-      </c>
-      <c r="G7">
-        <v>274.95999999999998</v>
-      </c>
-      <c r="H7">
-        <v>141.55500000000001</v>
-      </c>
-      <c r="J7">
-        <v>2984</v>
+      <c r="K7" s="5">
+        <v>9.59</v>
       </c>
       <c r="L7">
-        <v>4.2491099999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>8268</v>
-      </c>
-      <c r="B8">
-        <v>2901</v>
-      </c>
-      <c r="C8">
-        <v>48</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>3900</v>
-      </c>
-      <c r="F8">
-        <v>2933</v>
-      </c>
-      <c r="G8">
-        <v>274.95999999999998</v>
-      </c>
-      <c r="H8">
-        <v>175.614</v>
-      </c>
-      <c r="J8">
-        <v>2711</v>
-      </c>
-      <c r="L8">
         <v>2.9045100000000001</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="5">
+        <v>3.78</v>
       </c>
     </row>
   </sheetData>
